--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_5_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_5_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3448557332836235</v>
+        <v>0.09300270366551344</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3448557332836235</v>
+        <v>0.09300270366551344</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.732295183701689</v>
+        <v>7.448497245427472</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.278241612359901, 13.74283197976328]</t>
+          <t>[-1.0669984548577585, 15.963992945712702]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2957928584310048</v>
+        <v>0.08490685239776119</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2957928584310048</v>
+        <v>0.08490685239776119</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.792473822527155</v>
+        <v>-1.446579199851156</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.918342789162044, 2.333395144107734]</t>
+          <t>[-2.9937899962136965, 0.10063159651138465]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.6121146648098725</v>
+        <v>0.06615949986271641</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6121146648098725</v>
+        <v>0.06615949986271641</v>
       </c>
       <c r="T2" t="n">
-        <v>13.97075360755171</v>
+        <v>14.24730820888201</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.277100918237016, 18.664406296866396]</t>
+          <t>[9.45015758753572, 19.044458830228308]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.175981069247769e-07</v>
+        <v>3.322869319699606e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>3.175981069247769e-07</v>
+        <v>3.322869319699606e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>3.278018018018098</v>
+        <v>5.663663663663758</v>
       </c>
       <c r="Y2" t="n">
-        <v>-9.651941941942171</v>
+        <v>-0.3939939939939983</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.20797797797837</v>
+        <v>11.72132132132151</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3658531880649932</v>
+        <v>0.2460937912464798</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3658531880649932</v>
+        <v>0.2460937912464798</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.510295990563788</v>
+        <v>5.226773335802929</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-4.321239359514261, 15.341831340641836]</t>
+          <t>[-2.8616155143492454, 13.315162185955103]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2649442507801489</v>
+        <v>0.1997019285030197</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2649442507801489</v>
+        <v>0.1997019285030197</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.000052980663773</v>
+        <v>-1.861684535460618</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-5.132211422080623, 1.1321054607530776]</t>
+          <t>[-4.937237703839816, 1.2138686329185795]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2049815015265015</v>
+        <v>0.229131560696914</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2049815015265015</v>
+        <v>0.229131560696914</v>
       </c>
       <c r="T3" t="n">
-        <v>13.40844570878826</v>
+        <v>11.04934999506458</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[7.8921515001812, 18.92473991739533]</t>
+          <t>[6.637670947725473, 15.461029042403682]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.300916442970035e-05</v>
+        <v>7.932155460022017e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.300916442970035e-05</v>
+        <v>7.932155460022017e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>8.273093093093294</v>
+        <v>7.288888888889012</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.682882882882991</v>
+        <v>-4.752552552552633</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.22906906906958</v>
+        <v>19.33033033033066</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1357415125459567</v>
+        <v>0.6125823743994973</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1357415125459567</v>
+        <v>0.6125823743994973</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.547824030471748</v>
+        <v>3.433455085108109</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.6912114192755823, 16.78685948021908]</t>
+          <t>[-6.014939154572211, 12.88184932478843]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1068513364334571</v>
+        <v>0.4680209109004669</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1068513364334571</v>
+        <v>0.4680209109004669</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.943474197958004</v>
+        <v>-2.578684660604234</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.654211338651545, -1.2327370572644627]</t>
+          <t>[-5.7171325768030465, 0.5597632555945777]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.001174809375943608</v>
+        <v>0.1049091022515263</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001174809375943608</v>
+        <v>0.1049091022515263</v>
       </c>
       <c r="T4" t="n">
-        <v>14.4454866286642</v>
+        <v>14.73444705706061</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.403444380363748, 19.487528876964657]</t>
+          <t>[9.862808973654516, 19.606085140466707]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.835695771645334e-07</v>
+        <v>2.281705040463322e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>6.835695771645334e-07</v>
+        <v>2.281705040463322e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>12.17549549549579</v>
+        <v>10.09609609609626</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.099139139139259</v>
+        <v>-2.19159159159163</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.25185185185232</v>
+        <v>22.38378378378415</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07695488377661108</v>
+        <v>0.1976434392364035</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07695488377661108</v>
+        <v>0.1976434392364035</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>9.072811783528072</v>
+        <v>5.663408465039712</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.509120233219921, 19.654743800276066]</t>
+          <t>[-2.4188577580121784, 13.745674688091603]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.09105131654632359</v>
+        <v>0.1650262692474893</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09105131654632359</v>
+        <v>0.1650262692474893</v>
       </c>
       <c r="P5" t="n">
-        <v>2.19502669890458</v>
+        <v>-1.861684535460618</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.45913165908319353, 4.849185056892353]</t>
+          <t>[-4.9435271786217765, 1.2201581077005397]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1027223755584357</v>
+        <v>0.2300679234632435</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1027223755584357</v>
+        <v>0.2300679234632435</v>
       </c>
       <c r="T5" t="n">
-        <v>15.38911760731433</v>
+        <v>13.19115768773635</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[9.640344174929432, 21.137891039699234]</t>
+          <t>[8.756144913523485, 17.626170461949222]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.472104932094155e-06</v>
+        <v>3.224403999357861e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>2.472104932094155e-06</v>
+        <v>3.224403999357861e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>16.91041041041082</v>
+        <v>7.288888888889012</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.931651651651794</v>
+        <v>-4.777177177177251</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.88916916916984</v>
+        <v>19.35495495495528</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.437052494154092</v>
+        <v>0.5612905178853518</v>
       </c>
       <c r="I6" t="n">
-        <v>0.437052494154092</v>
+        <v>0.5612905178853518</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.846573598241477</v>
+        <v>3.490477283058333</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.9615982380144867, 13.65474543449744]</t>
+          <t>[-5.319975849817037, 12.300930415933703]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.27364977725294</v>
+        <v>0.4290981664276425</v>
       </c>
       <c r="O6" t="n">
-        <v>0.27364977725294</v>
+        <v>0.4290981664276425</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.107000542289004</v>
+        <v>-1.773631888513156</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-6.22029055935997, 0.006289474781961957]</t>
+          <t>[-4.9120798047119685, 1.3648160276856558]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.05044516125735177</v>
+        <v>0.2610479266730927</v>
       </c>
       <c r="S6" t="n">
-        <v>0.05044516125735177</v>
+        <v>0.2610479266730927</v>
       </c>
       <c r="T6" t="n">
-        <v>15.11587603706491</v>
+        <v>14.78340734097695</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.991300577665235, 20.24045149646458]</t>
+          <t>[10.140874538937773, 19.425940143016135]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.820199874216001e-07</v>
+        <v>7.579514704758594e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>3.820199874216001e-07</v>
+        <v>7.579514704758594e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>12.85191191191222</v>
+        <v>6.944144144144257</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.02601601601601899</v>
+        <v>-5.343543543543634</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.72983983984046</v>
+        <v>19.23183183183215</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.36000000000021</v>
+        <v>24.99000000000047</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8877139304718377</v>
+        <v>0.4217887497228616</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8877139304718377</v>
+        <v>0.4217887497228616</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.971131244166522</v>
+        <v>4.775078028849081</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-8.75318913087171, 12.695451619204754]</t>
+          <t>[-4.813944218318908, 14.36410027601707]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.7129758621967324</v>
+        <v>0.3212383210542038</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7129758621967324</v>
+        <v>0.3212383210542038</v>
       </c>
       <c r="P7" t="n">
-        <v>1.893131909370426</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, 5.031579825569239]</t>
+          <t>[-1.3836844520315408, 4.8680534812382374]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2307330221848967</v>
+        <v>0.2675830802733412</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2307330221848967</v>
+        <v>0.2675830802733412</v>
       </c>
       <c r="T7" t="n">
-        <v>15.41349907092758</v>
+        <v>14.73201737330555</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.730129036006286, 21.096869105848878]</t>
+          <t>[9.496531835298807, 19.967502911312298]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.946582639744676e-06</v>
+        <v>9.705602839193972e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>1.946582639744676e-06</v>
+        <v>9.705602839193972e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>16.32160160160175</v>
+        <v>18.06084084084118</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.653293293293331</v>
+        <v>5.628378378378487</v>
       </c>
       <c r="Z7" t="n">
-        <v>27.98990990991017</v>
+        <v>30.49330330330388</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.36000000000021</v>
+        <v>24.99000000000047</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4323408303119973</v>
+        <v>0.1007531249075665</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4323408303119973</v>
+        <v>0.1007531249075665</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.86323911989833</v>
+        <v>6.272130088012329</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-5.092711360368227, 14.819189600164886]</t>
+          <t>[-1.0702675576428238, 13.614527733667481]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.3304543588851374</v>
+        <v>0.09220906992312949</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3304543588851374</v>
+        <v>0.09220906992312949</v>
       </c>
       <c r="P8" t="n">
-        <v>1.17613178422681</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.8994213841523875, 4.251684952606008]</t>
+          <t>[0.10692107129334616, 3.4277637561690444]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.4451945592662621</v>
+        <v>0.03748855103701532</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4451945592662621</v>
+        <v>0.03748855103701532</v>
       </c>
       <c r="T8" t="n">
-        <v>15.53577573959196</v>
+        <v>12.33150325374959</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[10.286632070889663, 20.78491940829425]</t>
+          <t>[8.18429466140263, 16.478711846096544]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.566325454951169e-07</v>
+        <v>3.243900614791073e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>3.566325454951169e-07</v>
+        <v>3.243900614791073e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>18.98730730730747</v>
+        <v>17.96078078078111</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.552832832832893</v>
+        <v>11.35681681681702</v>
       </c>
       <c r="Z8" t="n">
-        <v>30.42178178178206</v>
+        <v>24.56474474474521</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.36000000000021</v>
+        <v>24.99000000000047</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2151215255637857</v>
+        <v>0.1831387382462031</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2151215255637857</v>
+        <v>0.1831387382462031</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.12681614822352</v>
+        <v>7.698793850822242</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.299753646539269, 14.55338594298631]</t>
+          <t>[-3.471161853327991, 18.868749554972474]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1500307509394334</v>
+        <v>0.1719097954229016</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1500307509394334</v>
+        <v>0.1719097954229016</v>
       </c>
       <c r="P9" t="n">
-        <v>1.50318447288881</v>
+        <v>2.283079345852042</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.597526594618233, 4.603895540395853]</t>
+          <t>[-0.8365001460008852, 5.402658837704969]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.334080780612122</v>
+        <v>0.1474349381985349</v>
       </c>
       <c r="S9" t="n">
-        <v>0.334080780612122</v>
+        <v>0.1474349381985349</v>
       </c>
       <c r="T9" t="n">
-        <v>12.67933436411293</v>
+        <v>14.94667499551281</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.852099006682429, 17.506569721543425]</t>
+          <t>[9.042320042447486, 20.85102994857813]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.479301777353783e-06</v>
+        <v>6.619246198713569e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>3.479301777353783e-06</v>
+        <v>6.619246198713569e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>17.77137137137153</v>
+        <v>15.90954954954985</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.24336336336342</v>
+        <v>3.502102102102169</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.29937937937964</v>
+        <v>28.31699699699752</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.36000000000021</v>
+        <v>24.99000000000047</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1797855363852885</v>
+        <v>0.1721052843877694</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1797855363852885</v>
+        <v>0.1721052843877694</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.431071823710409</v>
+        <v>5.840279630001479</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.0239082646434445, 14.88605191206426]</t>
+          <t>[-2.7477835518423444, 14.428342811845303]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1325285799248002</v>
+        <v>0.1775821631804584</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1325285799248002</v>
+        <v>0.1775821631804584</v>
       </c>
       <c r="P10" t="n">
-        <v>1.880552959806502</v>
+        <v>2.333395144107734</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.9119738433844251, 4.67307976299743]</t>
+          <t>[-0.8050527720910781, 5.471843060306546]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1817561805240608</v>
+        <v>0.1412557942207542</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1817561805240608</v>
+        <v>0.1412557942207542</v>
       </c>
       <c r="T10" t="n">
-        <v>13.38782075579277</v>
+        <v>10.53533199829142</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[8.587823590274827, 18.187817921310714]</t>
+          <t>[6.150721261517919, 14.919942735064911]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.149734247585243e-06</v>
+        <v>1.566785932105574e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.149734247585243e-06</v>
+        <v>1.566785932105574e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>16.36836836836852</v>
+        <v>15.70942942942972</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.986146146146201</v>
+        <v>3.226936936936999</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.75059059059084</v>
+        <v>28.19192192192245</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.36000000000021</v>
+        <v>24.99000000000047</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2742203376641148</v>
+        <v>0.4755067224826074</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2742203376641148</v>
+        <v>0.4755067224826074</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.500287841092183</v>
+        <v>4.253473096690889</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.5466280871982594, 14.547203769382625]</t>
+          <t>[-4.988169531869912, 13.49511572525169]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2271272466578473</v>
+        <v>0.3588757116227452</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2271272466578473</v>
+        <v>0.3588757116227452</v>
       </c>
       <c r="P11" t="n">
-        <v>2.55981623625835</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.5471843060306538, 5.666816778547354]</t>
+          <t>[-1.9182898084982725, 4.34602707433543]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.103991139135915</v>
+        <v>0.4391445814593646</v>
       </c>
       <c r="S11" t="n">
-        <v>0.103991139135915</v>
+        <v>0.4391445814593646</v>
       </c>
       <c r="T11" t="n">
-        <v>13.26995481311099</v>
+        <v>14.38267596542229</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.448651348763612, 18.09125827745836]</t>
+          <t>[9.403697302808496, 19.361654628036092]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.478347974037675e-06</v>
+        <v>5.81034026003735e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.478347974037675e-06</v>
+        <v>5.81034026003735e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>13.84296296296309</v>
+        <v>20.16210210210248</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.291571571571591</v>
+        <v>7.704624624624769</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.39435435435458</v>
+        <v>32.61957957958019</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.36000000000021</v>
+        <v>24.99000000000047</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8343833555737217</v>
+        <v>0.05289958558096775</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8343833555737217</v>
+        <v>0.05289958558096775</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>2.210145731175039</v>
+        <v>6.894700057883911</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-7.581065876831861, 12.00135733918194]</t>
+          <t>[-0.5963840422634572, 14.38578415803128]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.6515549752419321</v>
+        <v>0.07033622441743037</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6515549752419321</v>
+        <v>0.07033622441743037</v>
       </c>
       <c r="P12" t="n">
-        <v>1.817658211986887</v>
+        <v>0.761026448617347</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.3207897042119248, 4.9561061281856995]</t>
+          <t>[-1.3899739268135018, 2.912026824048196]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.2495633835839497</v>
+        <v>0.4797769782272965</v>
       </c>
       <c r="S12" t="n">
-        <v>0.2495633835839497</v>
+        <v>0.4797769782272965</v>
       </c>
       <c r="T12" t="n">
-        <v>11.09846318325528</v>
+        <v>13.36339994101833</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.938095691774434, 16.258830674736117]</t>
+          <t>[9.48110124068032, 17.24569864135633]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.183032694231152e-05</v>
+        <v>1.281814010489768e-08</v>
       </c>
       <c r="W12" t="n">
-        <v>8.183032694231152e-05</v>
+        <v>1.281814010489768e-08</v>
       </c>
       <c r="X12" t="n">
-        <v>16.60220220220235</v>
+        <v>21.9631831831836</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.93389389389394</v>
+        <v>13.4080480480483</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.27051051051077</v>
+        <v>30.51831831831889</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_5_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_5_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.60000000000041</v>
+        <v>24.46000000000038</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09300270366551344</v>
+        <v>0.2574725043160806</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09300270366551344</v>
+        <v>0.2574725043160806</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.448497245427472</v>
+        <v>6.305250118901022</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.0669984548577585, 15.963992945712702]</t>
+          <t>[-3.7244588342411467, 16.33495907204319]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.08490685239776119</v>
+        <v>0.2119639173776977</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08490685239776119</v>
+        <v>0.2119639173776977</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.446579199851156</v>
+        <v>-1.912000333716311</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-2.9937899962136965, 0.10063159651138465]</t>
+          <t>[-4.9749745525315845, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.06615949986271641</v>
+        <v>0.2151444044374964</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06615949986271641</v>
+        <v>0.2151444044374964</v>
       </c>
       <c r="T2" t="n">
-        <v>14.24730820888201</v>
+        <v>14.07048070137675</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.45015758753572, 19.044458830228308]</t>
+          <t>[8.675522331573909, 19.46543907117958]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.322869319699606e-07</v>
+        <v>3.945267940785868e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>3.322869319699606e-07</v>
+        <v>3.945267940785868e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>5.663663663663758</v>
+        <v>7.443283283283399</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.3939939939939983</v>
+        <v>-4.480660660660732</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.72132132132151</v>
+        <v>19.36722722722753</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.60000000000041</v>
+        <v>24.46000000000038</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2460937912464798</v>
+        <v>0.3881903784563706</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2460937912464798</v>
+        <v>0.3881903784563706</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.226773335802929</v>
+        <v>4.374237159021835</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-2.8616155143492454, 13.315162185955103]</t>
+          <t>[-4.305406631214479, 13.053880949258149]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.1997019285030197</v>
+        <v>0.315514492217964</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1997019285030197</v>
+        <v>0.315514492217964</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.861684535460618</v>
+        <v>-2.390000417145388</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.937237703839816, 1.2138686329185795]</t>
+          <t>[-5.515869383780277, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.229131560696914</v>
+        <v>0.1305736229405345</v>
       </c>
       <c r="S3" t="n">
-        <v>0.229131560696914</v>
+        <v>0.1305736229405345</v>
       </c>
       <c r="T3" t="n">
-        <v>11.04934999506458</v>
+        <v>13.59880373283898</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.637670947725473, 15.461029042403682]</t>
+          <t>[9.131358305880251, 18.066249159797717]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.932155460022017e-06</v>
+        <v>1.99560998614956e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>7.932155460022017e-06</v>
+        <v>1.99560998614956e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>7.288888888889012</v>
+        <v>9.304104104104251</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.752552552552633</v>
+        <v>-2.864684684684729</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.33033033033066</v>
+        <v>21.47289289289323</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.60000000000041</v>
+        <v>24.46000000000038</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6125823743994973</v>
+        <v>0.8342855313572308</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6125823743994973</v>
+        <v>0.8342855313572308</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>3.433455085108109</v>
+        <v>2.084054028740196</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-6.014939154572211, 12.88184932478843]</t>
+          <t>[-7.543325273830609, 11.711433331311001]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4680209109004669</v>
+        <v>0.6649240582678755</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4680209109004669</v>
+        <v>0.6649240582678755</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.578684660604234</v>
+        <v>2.245342497160273</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.7171325768030465, 0.5597632555945777]</t>
+          <t>[-0.8805264694746171, 5.371211463795163]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1049091022515263</v>
+        <v>0.1548971702414264</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1049091022515263</v>
+        <v>0.1548971702414264</v>
       </c>
       <c r="T4" t="n">
-        <v>14.73444705706061</v>
+        <v>15.62490337226662</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.862808973654516, 19.606085140466707]</t>
+          <t>[10.683293690927762, 20.566513053605487]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.281705040463322e-07</v>
+        <v>8.84843209814079e-08</v>
       </c>
       <c r="W4" t="n">
-        <v>2.281705040463322e-07</v>
+        <v>8.84843209814079e-08</v>
       </c>
       <c r="X4" t="n">
-        <v>10.09609609609626</v>
+        <v>15.71903903903929</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.19159159159163</v>
+        <v>3.550250250250304</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.38378378378415</v>
+        <v>27.88782782782827</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.60000000000041</v>
+        <v>24.46000000000038</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1976434392364035</v>
+        <v>0.746266145544205</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1976434392364035</v>
+        <v>0.746266145544205</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.663408465039712</v>
+        <v>3.009541689727701</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.4188577580121784, 13.745674688091603]</t>
+          <t>[-7.358164679316527, 13.37724805877193]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1650262692474893</v>
+        <v>0.5616999632879436</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1650262692474893</v>
+        <v>0.5616999632879436</v>
       </c>
       <c r="P5" t="n">
-        <v>-1.861684535460618</v>
+        <v>0.09434212172942313</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.9435271786217765, 1.2201581077005397]</t>
+          <t>[-3.031526844905466, 3.2202110883643122]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.2300679234632435</v>
+        <v>0.9517973616532496</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2300679234632435</v>
+        <v>0.9517973616532496</v>
       </c>
       <c r="T5" t="n">
-        <v>13.19115768773635</v>
+        <v>15.62017736916701</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.756144913523485, 17.626170461949222]</t>
+          <t>[10.090517960805318, 21.14983677752871]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.224403999357861e-07</v>
+        <v>9.005936445483087e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.224403999357861e-07</v>
+        <v>9.005936445483087e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>7.288888888889012</v>
+        <v>24.09273273273311</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.777177177177251</v>
+        <v>11.92394394394413</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.35495495495528</v>
+        <v>36.26152152152209</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.60000000000041</v>
+        <v>24.46000000000038</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5612905178853518</v>
+        <v>0.6261954887793578</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5612905178853518</v>
+        <v>0.6261954887793578</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>3.490477283058333</v>
+        <v>3.569383817246738</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-5.319975849817037, 12.300930415933703]</t>
+          <t>[-6.424712642543518, 13.563480277036994]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.4290981664276425</v>
+        <v>0.4756535283024108</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4290981664276425</v>
+        <v>0.4756535283024108</v>
       </c>
       <c r="P6" t="n">
-        <v>-1.773631888513156</v>
+        <v>-1.912000333716311</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.9120798047119685, 1.3648160276856558]</t>
+          <t>[-5.0378693003512005, 1.2138686329185795]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.2610479266730927</v>
+        <v>0.2243603438411517</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2610479266730927</v>
+        <v>0.2243603438411517</v>
       </c>
       <c r="T6" t="n">
-        <v>14.78340734097695</v>
+        <v>16.61486776817648</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.140874538937773, 19.425940143016135]</t>
+          <t>[11.360669148963133, 21.86906638738982]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.579514704758594e-08</v>
+        <v>8.830004327720076e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>7.579514704758594e-08</v>
+        <v>8.830004327720076e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>6.944144144144257</v>
+        <v>7.443283283283399</v>
       </c>
       <c r="Y6" t="n">
-        <v>-5.343543543543634</v>
+        <v>-4.725505505505582</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.23183183183215</v>
+        <v>19.61207207207238</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.99000000000047</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4217887497228616</v>
+        <v>0.1503626969709846</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4217887497228616</v>
+        <v>0.1503626969709846</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>4.775078028849081</v>
+        <v>6.273808949390817</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-4.813944218318908, 14.36410027601707]</t>
+          <t>[-2.022395743854762, 14.570013642636397]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3212383210542038</v>
+        <v>0.1347263722680527</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3212383210542038</v>
+        <v>0.1347263722680527</v>
       </c>
       <c r="P7" t="n">
-        <v>1.742184514603348</v>
+        <v>2.748500479717197</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.3836844520315408, 4.8680534812382374]</t>
+          <t>[0.14465791998511612, 5.352343039449277]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.2675830802733412</v>
+        <v>0.03902427509873241</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2675830802733412</v>
+        <v>0.03902427509873241</v>
       </c>
       <c r="T7" t="n">
-        <v>14.73201737330555</v>
+        <v>13.81254118602804</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.496531835298807, 19.967502911312298]</t>
+          <t>[9.357126483241757, 18.26795588881432]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.705602839193972e-07</v>
+        <v>1.354623500038343e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>9.705602839193972e-07</v>
+        <v>1.354623500038343e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>18.06084084084118</v>
+        <v>13.97967967967993</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.628378378378487</v>
+        <v>3.681481481481546</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.49330330330388</v>
+        <v>24.27787787787831</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.99000000000047</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1007531249075665</v>
+        <v>0.3506857698016201</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1007531249075665</v>
+        <v>0.3506857698016201</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>6.272130088012329</v>
+        <v>5.086948575739326</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-1.0702675576428238, 13.614527733667481]</t>
+          <t>[-4.5063437080778925, 14.680240859556545]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.09220906992312949</v>
+        <v>0.2912163479597911</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09220906992312949</v>
+        <v>0.2912163479597911</v>
       </c>
       <c r="P8" t="n">
-        <v>1.767342413731195</v>
+        <v>1.100658086843271</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.10692107129334616, 3.4277637561690444]</t>
+          <t>[-2.031500354573579, 4.232816528260122]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.03748855103701532</v>
+        <v>0.4827396491498246</v>
       </c>
       <c r="S8" t="n">
-        <v>0.03748855103701532</v>
+        <v>0.4827396491498246</v>
       </c>
       <c r="T8" t="n">
-        <v>12.33150325374959</v>
+        <v>14.73286818761154</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.18429466140263, 16.478711846096544]</t>
+          <t>[9.760331609632098, 19.705404765590984]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.243900614791073e-07</v>
+        <v>3.489382887078563e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>3.243900614791073e-07</v>
+        <v>3.489382887078563e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>17.96078078078111</v>
+        <v>20.49689689689726</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.35681681681702</v>
+        <v>8.109209209209356</v>
       </c>
       <c r="Z8" t="n">
-        <v>24.56474474474521</v>
+        <v>32.88458458458517</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.99000000000047</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1831387382462031</v>
+        <v>0.8949392340330975</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1831387382462031</v>
+        <v>0.8949392340330975</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.698793850822242</v>
+        <v>1.287859261746189</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.471161853327991, 18.868749554972474]</t>
+          <t>[-6.132428702478604, 8.708147225970983]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1719097954229016</v>
+        <v>0.7282949807845278</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1719097954229016</v>
+        <v>0.7282949807845278</v>
       </c>
       <c r="P9" t="n">
-        <v>2.283079345852042</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.8365001460008852, 5.402658837704969]</t>
+          <t>[-1.6163950189641172, 4.597606065613891]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1474349381985349</v>
+        <v>0.3390685087426655</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1474349381985349</v>
+        <v>0.3390685087426655</v>
       </c>
       <c r="T9" t="n">
-        <v>14.94667499551281</v>
+        <v>11.49069628747126</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.042320042447486, 20.85102994857813]</t>
+          <t>[7.540099709611617, 15.441292865330908]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.619246198713569e-06</v>
+        <v>5.067285204773953e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>6.619246198713569e-06</v>
+        <v>5.067285204773953e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>15.90954954954985</v>
+        <v>18.95465465465499</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.502102102102169</v>
+        <v>6.666466466466588</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.31699699699752</v>
+        <v>31.2428428428434</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.99000000000047</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1721052843877694</v>
+        <v>0.1039790008328023</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1721052843877694</v>
+        <v>0.1039790008328023</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>5.840279630001479</v>
+        <v>7.217213549483258</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.7477835518423444, 14.428342811845303]</t>
+          <t>[-1.6819942089894084, 16.116421307955925]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1775821631804584</v>
+        <v>0.1093573434952444</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1775821631804584</v>
+        <v>0.1093573434952444</v>
       </c>
       <c r="P10" t="n">
-        <v>2.333395144107734</v>
+        <v>2.396289891927349</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-0.8050527720910781, 5.471843060306546]</t>
+          <t>[-0.6603948521059637, 5.452974635960662]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1412557942207542</v>
+        <v>0.121350311503915</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1412557942207542</v>
+        <v>0.121350311503915</v>
       </c>
       <c r="T10" t="n">
-        <v>10.53533199829142</v>
+        <v>14.03308602498717</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.150721261517919, 14.919942735064911]</t>
+          <t>[9.29967242184319, 18.766499628131157]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.566785932105574e-05</v>
+        <v>3.445509986210737e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.566785932105574e-05</v>
+        <v>3.445509986210737e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>15.70942942942972</v>
+        <v>15.37267267267295</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.226936936936999</v>
+        <v>3.28348348348354</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.19192192192245</v>
+        <v>27.46186186186236</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.99000000000047</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4755067224826074</v>
+        <v>0.1282723208236844</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4755067224826074</v>
+        <v>0.1282723208236844</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.253473096690889</v>
+        <v>6.243236023788158</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-4.988169531869912, 13.49511572525169]</t>
+          <t>[-1.4486577145982888, 13.935129762174604]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.3588757116227452</v>
+        <v>0.1090732778046739</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3588757116227452</v>
+        <v>0.1090732778046739</v>
       </c>
       <c r="P11" t="n">
-        <v>1.213868632918579</v>
+        <v>1.792500312859041</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.9182898084982725, 4.34602707433543]</t>
+          <t>[0.018868424345884982, 3.5661322013721977]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.4391445814593646</v>
+        <v>0.0477115463893063</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4391445814593646</v>
+        <v>0.0477115463893063</v>
       </c>
       <c r="T11" t="n">
-        <v>14.38267596542229</v>
+        <v>13.30174519717491</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[9.403697302808496, 19.361654628036092]</t>
+          <t>[8.940694263087256, 17.662796131262557]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.81034026003735e-07</v>
+        <v>1.912835563278037e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>5.81034026003735e-07</v>
+        <v>1.912835563278037e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>20.16210210210248</v>
+        <v>17.76066066066098</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.704624624624769</v>
+        <v>10.74594594594614</v>
       </c>
       <c r="Z11" t="n">
-        <v>32.61957957958019</v>
+        <v>24.77537537537582</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.99000000000047</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05289958558096775</v>
+        <v>0.1256352418548161</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05289958558096775</v>
+        <v>0.1256352418548161</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.894700057883911</v>
+        <v>7.483979585024753</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-0.5963840422634572, 14.38578415803128]</t>
+          <t>[-2.0876178045551503, 17.055576974604655]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.07033622441743037</v>
+        <v>0.1223040106146467</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07033622441743037</v>
+        <v>0.1223040106146467</v>
       </c>
       <c r="P12" t="n">
-        <v>0.761026448617347</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-1.3899739268135018, 2.912026824048196]</t>
+          <t>[-1.2704739059562327, 3.5221058778984675]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.4797769782272965</v>
+        <v>0.349070407827559</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4797769782272965</v>
+        <v>0.349070407827559</v>
       </c>
       <c r="T12" t="n">
-        <v>13.36339994101833</v>
+        <v>12.92428850795955</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.48110124068032, 17.24569864135633]</t>
+          <t>[7.778454438225951, 18.070122577693148]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.281814010489768e-08</v>
+        <v>7.565848223700655e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>1.281814010489768e-08</v>
+        <v>7.565848223700655e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>21.9631831831836</v>
+        <v>20.39739739739776</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.4080480480483</v>
+        <v>10.92007007007026</v>
       </c>
       <c r="Z12" t="n">
-        <v>30.51831831831889</v>
+        <v>29.87472472472526</v>
       </c>
     </row>
   </sheetData>
